--- a/Data/2018-07-11_cohort1.xlsx
+++ b/Data/2018-07-11_cohort1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew.nguyen\Desktop\Proteome_stability_project\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hannahchu\Documents\GitHub\Proteome_stability_project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2FFE4A7-DD48-42BF-B72B-BA9DECA41D2D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06E6D0C-85B9-4A12-8C20-8991FCCBDA84}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" xr2:uid="{C4BE9311-1E2E-4E78-96A5-021CAFA5AEFB}"/>
   </bookViews>
@@ -616,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B836F27-30D4-4C97-95BA-22D35441ED15}">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,10 +680,10 @@
         <v>7</v>
       </c>
       <c r="I2" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
       <c r="J2" s="2">
-        <v>41827</v>
+        <v>43288</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -706,7 +706,7 @@
         <v>6</v>
       </c>
       <c r="I3" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
       <c r="J3" s="2"/>
     </row>
@@ -730,7 +730,7 @@
         <v>8</v>
       </c>
       <c r="I4" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
       <c r="J4" s="2"/>
     </row>
@@ -757,10 +757,10 @@
         <v>9</v>
       </c>
       <c r="I5" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
       <c r="J5" s="2">
-        <v>41829</v>
+        <v>43290</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -783,7 +783,7 @@
         <v>12</v>
       </c>
       <c r="I6" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
       <c r="J6" s="2"/>
     </row>
@@ -807,7 +807,7 @@
         <v>14</v>
       </c>
       <c r="I7" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
       <c r="J7" s="2"/>
     </row>
@@ -831,7 +831,7 @@
         <v>16</v>
       </c>
       <c r="I8" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
       <c r="J8" s="2"/>
     </row>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="I9" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
       <c r="J9" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -890,7 +890,7 @@
         <v>38.4</v>
       </c>
       <c r="I10" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
       <c r="J10" s="2"/>
     </row>
@@ -914,7 +914,7 @@
         <v>22</v>
       </c>
       <c r="I11" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
       <c r="J11" s="2"/>
     </row>
@@ -938,7 +938,7 @@
         <v>24</v>
       </c>
       <c r="I12" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
       <c r="J12" s="2"/>
     </row>
@@ -962,7 +962,7 @@
         <v>26</v>
       </c>
       <c r="I13" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
       <c r="J13" s="2"/>
     </row>
@@ -989,7 +989,7 @@
         <v>38.200000000000003</v>
       </c>
       <c r="I14" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
       <c r="J14" s="2"/>
     </row>
@@ -1016,10 +1016,10 @@
         <v>0</v>
       </c>
       <c r="I15" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
       <c r="J15" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1045,10 +1045,10 @@
         <v>0</v>
       </c>
       <c r="I16" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
       <c r="J16" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I17" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
       <c r="J17" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="I18" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
       <c r="J18" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1132,10 +1132,10 @@
         <v>0</v>
       </c>
       <c r="I19" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
       <c r="J19" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1161,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="I20" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
       <c r="J20" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1190,10 +1190,10 @@
         <v>0</v>
       </c>
       <c r="I21" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
       <c r="J21" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1219,10 +1219,10 @@
         <v>0</v>
       </c>
       <c r="I22" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
       <c r="J22" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1248,10 +1248,10 @@
         <v>0</v>
       </c>
       <c r="I23" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
       <c r="J23" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1277,10 +1277,10 @@
         <v>0</v>
       </c>
       <c r="I24" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
       <c r="J24" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="I25" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
       <c r="J25" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="I26" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
       <c r="J26" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1364,10 +1364,10 @@
         <v>0</v>
       </c>
       <c r="I27" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
       <c r="J27" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1393,10 +1393,10 @@
         <v>0</v>
       </c>
       <c r="I28" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
       <c r="J28" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1422,10 +1422,10 @@
         <v>0</v>
       </c>
       <c r="I29" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
       <c r="J29" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1451,10 +1451,10 @@
         <v>0</v>
       </c>
       <c r="I30" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
       <c r="J30" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1480,10 +1480,10 @@
         <v>0</v>
       </c>
       <c r="I31" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
       <c r="J31" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="I32" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
       <c r="J32" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="I33" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
       <c r="J33" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -1564,7 +1564,7 @@
         <v>43</v>
       </c>
       <c r="I34" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
       <c r="J34" s="2"/>
     </row>
@@ -1591,10 +1591,10 @@
         <v>0</v>
       </c>
       <c r="I35" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
       <c r="J35" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -1617,7 +1617,7 @@
         <v>45</v>
       </c>
       <c r="I36" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
       <c r="J36" s="2"/>
     </row>
@@ -1641,7 +1641,7 @@
         <v>46</v>
       </c>
       <c r="I37" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
       <c r="J37" s="2"/>
     </row>
@@ -1668,10 +1668,10 @@
         <v>0</v>
       </c>
       <c r="I38" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
       <c r="J38" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -1693,10 +1693,15 @@
       <c r="F39" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="H39">
+        <v>12</v>
+      </c>
       <c r="I39" s="2">
-        <v>41820</v>
-      </c>
-      <c r="J39" s="2"/>
+        <v>43281</v>
+      </c>
+      <c r="J39" s="2">
+        <v>43293</v>
+      </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
@@ -1721,10 +1726,10 @@
         <v>0</v>
       </c>
       <c r="I40" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
       <c r="J40" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -1750,10 +1755,10 @@
         <v>0</v>
       </c>
       <c r="I41" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
       <c r="J41" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -1782,10 +1787,10 @@
         <v>0</v>
       </c>
       <c r="I42" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
       <c r="J42" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -1814,10 +1819,10 @@
         <v>0</v>
       </c>
       <c r="I43" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
       <c r="J43" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -1846,10 +1851,10 @@
         <v>0</v>
       </c>
       <c r="I44" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
       <c r="J44" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -1878,10 +1883,10 @@
         <v>0</v>
       </c>
       <c r="I45" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
       <c r="J45" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -1910,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="I46" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
       <c r="J46" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -1936,7 +1941,7 @@
         <v>57</v>
       </c>
       <c r="I47" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
       <c r="J47" s="2"/>
     </row>
@@ -1966,10 +1971,10 @@
         <v>0</v>
       </c>
       <c r="I48" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
       <c r="J48" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -1995,10 +2000,10 @@
         <v>0</v>
       </c>
       <c r="I49" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
       <c r="J49" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -2021,7 +2026,7 @@
         <v>60</v>
       </c>
       <c r="I50" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
       <c r="J50" s="2"/>
     </row>
@@ -2051,10 +2056,10 @@
         <v>0</v>
       </c>
       <c r="I51" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
       <c r="J51" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -2076,10 +2081,15 @@
       <c r="F52" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="H52">
+        <v>12</v>
+      </c>
       <c r="I52" s="2">
-        <v>41820</v>
-      </c>
-      <c r="J52" s="2"/>
+        <v>43281</v>
+      </c>
+      <c r="J52" s="2">
+        <v>43293</v>
+      </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
@@ -2107,10 +2117,10 @@
         <v>0</v>
       </c>
       <c r="I53" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
       <c r="J53" s="2">
-        <v>41820</v>
+        <v>43281</v>
       </c>
     </row>
   </sheetData>

--- a/Data/2018-07-11_cohort1.xlsx
+++ b/Data/2018-07-11_cohort1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hannahchu\Documents\GitHub\Proteome_stability_project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06E6D0C-85B9-4A12-8C20-8991FCCBDA84}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFC891A-14D9-4AC4-BA71-65E2AD51C69E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" xr2:uid="{C4BE9311-1E2E-4E78-96A5-021CAFA5AEFB}"/>
   </bookViews>
@@ -616,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B836F27-30D4-4C97-95BA-22D35441ED15}">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,10 +705,15 @@
       <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H3">
+        <v>15</v>
+      </c>
       <c r="I3" s="2">
         <v>43281</v>
       </c>
-      <c r="J3" s="2"/>
+      <c r="J3" s="2">
+        <v>43296</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -830,10 +835,15 @@
       <c r="F8" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="H8">
+        <v>15</v>
+      </c>
       <c r="I8" s="2">
         <v>43281</v>
       </c>
-      <c r="J8" s="2"/>
+      <c r="J8" s="2">
+        <v>43296</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -913,10 +923,15 @@
       <c r="F11" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="H11">
+        <v>13</v>
+      </c>
       <c r="I11" s="2">
         <v>43281</v>
       </c>
-      <c r="J11" s="2"/>
+      <c r="J11" s="2">
+        <v>43294</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -937,10 +952,15 @@
       <c r="F12" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="H12">
+        <v>14</v>
+      </c>
       <c r="I12" s="2">
         <v>43281</v>
       </c>
-      <c r="J12" s="2"/>
+      <c r="J12" s="2">
+        <v>43295</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -961,10 +981,15 @@
       <c r="F13" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="H13">
+        <v>14</v>
+      </c>
       <c r="I13" s="2">
         <v>43281</v>
       </c>
-      <c r="J13" s="2"/>
+      <c r="J13" s="2">
+        <v>43295</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -988,10 +1013,15 @@
       <c r="G14">
         <v>38.200000000000003</v>
       </c>
+      <c r="H14">
+        <v>13</v>
+      </c>
       <c r="I14" s="2">
         <v>43281</v>
       </c>
-      <c r="J14" s="2"/>
+      <c r="J14" s="2">
+        <v>43297</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -1563,10 +1593,15 @@
       <c r="F34" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="H34">
+        <v>15</v>
+      </c>
       <c r="I34" s="2">
         <v>43281</v>
       </c>
-      <c r="J34" s="2"/>
+      <c r="J34" s="2">
+        <v>43296</v>
+      </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
@@ -1640,10 +1675,15 @@
       <c r="F37" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="H37">
+        <v>16</v>
+      </c>
       <c r="I37" s="2">
         <v>43281</v>
       </c>
-      <c r="J37" s="2"/>
+      <c r="J37" s="2">
+        <v>43297</v>
+      </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
@@ -1940,10 +1980,15 @@
       <c r="F47" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="H47">
+        <v>16</v>
+      </c>
       <c r="I47" s="2">
         <v>43281</v>
       </c>
-      <c r="J47" s="2"/>
+      <c r="J47" s="2">
+        <v>43297</v>
+      </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
@@ -2025,10 +2070,15 @@
       <c r="F50" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="H50">
+        <v>14</v>
+      </c>
       <c r="I50" s="2">
         <v>43281</v>
       </c>
-      <c r="J50" s="2"/>
+      <c r="J50" s="2">
+        <v>43295</v>
+      </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
